--- a/RPL_V2/xlsx/stadium_rpl.xlsx
+++ b/RPL_V2/xlsx/stadium_rpl.xlsx
@@ -854,6 +854,9 @@
       </c>
     </row>
     <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -864,7 +867,7 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
@@ -901,6 +904,9 @@
       </c>
     </row>
     <row r="3" spans="1:17">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -911,7 +917,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
@@ -948,6 +954,9 @@
       </c>
     </row>
     <row r="4" spans="1:17">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -958,7 +967,7 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -995,6 +1004,9 @@
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>69</v>
@@ -1042,6 +1054,9 @@
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1067,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>70</v>
@@ -1089,6 +1104,9 @@
       </c>
     </row>
     <row r="7" spans="1:17">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -1136,6 +1154,9 @@
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1167,7 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
@@ -1183,6 +1204,9 @@
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1193,7 +1217,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
@@ -1230,6 +1254,9 @@
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1240,7 +1267,7 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>74</v>
@@ -1277,6 +1304,9 @@
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1317,7 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>75</v>
@@ -1324,6 +1354,9 @@
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1367,7 @@
         <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -1371,6 +1404,9 @@
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1381,7 +1417,7 @@
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>76</v>
@@ -1418,6 +1454,9 @@
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -1428,7 +1467,7 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
         <v>73</v>
@@ -1465,6 +1504,9 @@
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1517,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
         <v>70</v>
@@ -1512,6 +1554,9 @@
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16">
+        <v>3</v>
+      </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -1522,7 +1567,7 @@
         <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>1956</v>
@@ -1559,6 +1604,9 @@
       </c>
     </row>
     <row r="17" spans="1:17">
+      <c r="A17">
+        <v>3</v>
+      </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1617,7 @@
         <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>77</v>
@@ -1606,6 +1654,9 @@
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -1616,7 +1667,7 @@
         <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
@@ -1653,6 +1704,9 @@
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19">
+        <v>3</v>
+      </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1663,7 +1717,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
         <v>79</v>
@@ -1700,6 +1754,9 @@
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20">
+        <v>3</v>
+      </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -1710,7 +1767,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
         <v>66</v>
@@ -1747,6 +1804,9 @@
       </c>
     </row>
     <row r="21" spans="1:17">
+      <c r="A21">
+        <v>3</v>
+      </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -1757,7 +1817,7 @@
         <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>80</v>
@@ -1794,6 +1854,9 @@
       </c>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22">
+        <v>3</v>
+      </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -1804,7 +1867,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>72</v>
@@ -1841,6 +1904,9 @@
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23">
+        <v>3</v>
+      </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -1851,7 +1917,7 @@
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>74</v>
@@ -1888,6 +1954,9 @@
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24">
+        <v>3</v>
+      </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1898,7 +1967,7 @@
         <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>81</v>
@@ -1935,6 +2004,9 @@
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25">
+        <v>3</v>
+      </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -1945,7 +2017,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>69</v>
